--- a/SpringBoot/springboot.xlsx
+++ b/SpringBoot/springboot.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="188">
   <si>
     <t>@SpringBootApplication注释在内部有什么用处?</t>
   </si>
@@ -866,152 +866,16 @@
     <t>精髓：</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.75"/>
-        <color rgb="FF333333"/>
-        <rFont val="Open Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.75"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）、</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.75"/>
-        <color rgb="FF333333"/>
-        <rFont val="Open Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SpringBoot</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.75"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>启动会加载大量的自动配置类</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.75"/>
-        <color rgb="FF333333"/>
-        <rFont val="Open Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.75"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）、我们看我们需要的功能有没有</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.75"/>
-        <color rgb="FF333333"/>
-        <rFont val="Open Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SpringBoot</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.75"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>默认写好的自动配置类；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.75"/>
-        <color rgb="FF333333"/>
-        <rFont val="Open Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.75"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）、我们再来看这个自动配置类中到底配置了哪些组件；（只要我们要用的组件有，我们就不需要再来配置了）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.75"/>
-        <color rgb="FF333333"/>
-        <rFont val="Open Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.75"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）、给容器中自动配置类添加组件的时候，会从</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.75"/>
-        <color rgb="FF333333"/>
-        <rFont val="Open Sans"/>
-        <charset val="134"/>
-      </rPr>
-      <t>properties</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.75"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类中获取某些属性。我们就可以在配置文件中指定这</t>
-    </r>
+    <t>1）、SpringBoot启动会加载大量的自动配置类</t>
+  </si>
+  <si>
+    <t>2）、我们看我们需要的功能有没有SpringBoot默认写好的自动配置类；</t>
+  </si>
+  <si>
+    <t>3）、我们再来看这个自动配置类中到底配置了哪些组件；（只要我们要用的组件有，我们就不需要再来配置了）</t>
+  </si>
+  <si>
+    <t>4）、给容器中自动配置类添加组件的时候，会从properties类中获取某些属性。我们就可以在配置文件中指定这</t>
   </si>
   <si>
     <t>些属性的值；</t>
@@ -1096,6 +960,54 @@
   </si>
   <si>
     <t>2.运行run方法</t>
+  </si>
+  <si>
+    <t>SpringBoot对静态资源的映射规则</t>
+  </si>
+  <si>
+    <t>第一种映射规则：webjars：以jar包的方式引入静态资源；</t>
+  </si>
+  <si>
+    <t>所有 /webjars/** ，都去 classpath:/META-INF/resources/webjars/ 找资源；</t>
+  </si>
+  <si>
+    <t>第二种映射规则：静态资源文件夹</t>
+  </si>
+  <si>
+    <t>SpringBoot模板引擎</t>
+  </si>
+  <si>
+    <t>常用的模板引擎JSP、Velocity、Freemarker、Thymeleaf</t>
+  </si>
+  <si>
+    <t>模板引擎的作用就是我们来写一个页面模板</t>
+  </si>
+  <si>
+    <t>比如有些值是动态的，我们写一些表达式</t>
+  </si>
+  <si>
+    <t>这个动态的值从哪里来，我们组装一些数据</t>
+  </si>
+  <si>
+    <t>将模板和数据交给模板引擎</t>
+  </si>
+  <si>
+    <t>模板引擎通过解析表达式数据，填充到模板中指定的位置</t>
+  </si>
+  <si>
+    <t>然后将数据转换成我们想要的内容写出去</t>
+  </si>
+  <si>
+    <t>Thymeleaf</t>
+  </si>
+  <si>
+    <t>Maven配置</t>
+  </si>
+  <si>
+    <t>只要我们把HTML页面放在classpath:/templates/，thymeleaf就能自动渲染；</t>
+  </si>
+  <si>
+    <t>语法规则</t>
   </si>
 </sst>
 </file>
@@ -1104,9 +1016,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1139,8 +1051,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1148,36 +1061,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1192,7 +1075,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1200,7 +1083,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1228,25 +1118,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1254,17 +1128,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1277,9 +1143,55 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1292,43 +1204,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,13 +1222,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1370,13 +1240,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,6 +1265,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1412,13 +1294,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1430,31 +1330,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1466,13 +1378,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1483,6 +1395,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1505,81 +1491,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1591,10 +1503,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1603,133 +1515,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2447,6 +2359,216 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>373</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="63150750"/>
+          <a:ext cx="2324100" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>242570</xdr:colOff>
+      <xdr:row>383</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4676775" y="64522350"/>
+          <a:ext cx="3109595" cy="1457325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>390</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>403</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="67179825"/>
+          <a:ext cx="5181600" cy="2143125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>417</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="69865875"/>
+          <a:ext cx="5572125" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>419</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>444</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="72066150"/>
+          <a:ext cx="5895975" cy="4295775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3084,10 +3206,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C303"/>
+  <dimension ref="A1:C419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="N201" sqref="N201"/>
+    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="M437" sqref="M437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3661,6 +3783,86 @@
     <row r="303" spans="2:2">
       <c r="B303" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2">
+      <c r="B365" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="366" spans="3:3">
+      <c r="C366" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2">
+      <c r="B367" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2">
+      <c r="B376" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2">
+      <c r="B377" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2">
+      <c r="B378" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2">
+      <c r="B379" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2">
+      <c r="B380" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2">
+      <c r="B381" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2">
+      <c r="B382" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2">
+      <c r="B390" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2">
+      <c r="B406" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2">
+      <c r="B419" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
